--- a/data/2022/scicom2022.xlsx
+++ b/data/2022/scicom2022.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E919D50-8DB6-42D7-9AD3-101BC2DAEA6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="72">
   <si>
     <t>Emmanuel</t>
   </si>
@@ -220,12 +221,27 @@
   </si>
   <si>
     <t>email</t>
+  </si>
+  <si>
+    <t>OrgCom</t>
+  </si>
+  <si>
+    <t>Bibiana</t>
+  </si>
+  <si>
+    <t>Blatna</t>
+  </si>
+  <si>
+    <t>Laurence</t>
+  </si>
+  <si>
+    <t>Guillier</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -270,7 +286,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -292,6 +308,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -572,11 +594,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="79" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -587,11 +609,12 @@
     <col min="4" max="4" width="9.5703125" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="33" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="79" style="5"/>
+    <col min="7" max="7" width="5.5703125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="7.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="79" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>52</v>
       </c>
@@ -611,13 +634,16 @@
         <v>58</v>
       </c>
       <c r="G1" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>50</v>
       </c>
@@ -634,11 +660,12 @@
         <v>57</v>
       </c>
       <c r="F2" s="6"/>
-      <c r="G2" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G2" s="6"/>
+      <c r="H2" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>47</v>
       </c>
@@ -654,17 +681,18 @@
       <c r="E3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F3" s="6">
-        <v>1</v>
-      </c>
+      <c r="F3" s="6"/>
       <c r="G3" s="6">
         <v>1</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="6">
+        <v>1</v>
+      </c>
+      <c r="I3" s="7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>44</v>
       </c>
@@ -681,11 +709,12 @@
         <v>46</v>
       </c>
       <c r="F4" s="6"/>
-      <c r="G4" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G4" s="6"/>
+      <c r="H4" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>42</v>
       </c>
@@ -707,11 +736,14 @@
       <c r="G5" s="6">
         <v>1</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="6">
+        <v>1</v>
+      </c>
+      <c r="I5" s="7" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>39</v>
       </c>
@@ -727,17 +759,18 @@
       <c r="E6" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="6">
-        <v>1</v>
-      </c>
+      <c r="F6" s="6"/>
       <c r="G6" s="6">
         <v>1</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="6">
+        <v>1</v>
+      </c>
+      <c r="I6" s="7" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>37</v>
       </c>
@@ -754,11 +787,12 @@
         <v>30</v>
       </c>
       <c r="F7" s="6"/>
-      <c r="G7" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G7" s="6"/>
+      <c r="H7" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>34</v>
       </c>
@@ -775,11 +809,12 @@
         <v>36</v>
       </c>
       <c r="F8" s="6"/>
-      <c r="G8" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G8" s="6"/>
+      <c r="H8" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>31</v>
       </c>
@@ -796,11 +831,12 @@
         <v>33</v>
       </c>
       <c r="F9" s="6"/>
-      <c r="G9" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G9" s="6"/>
+      <c r="H9" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>28</v>
       </c>
@@ -816,17 +852,18 @@
       <c r="E10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="6">
-        <v>1</v>
-      </c>
+      <c r="F10" s="6"/>
       <c r="G10" s="6">
         <v>1</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="H10" s="6">
+        <v>1</v>
+      </c>
+      <c r="I10" s="8" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>25</v>
       </c>
@@ -843,11 +880,12 @@
         <v>27</v>
       </c>
       <c r="F11" s="6"/>
-      <c r="G11" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G11" s="6"/>
+      <c r="H11" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
@@ -864,11 +902,12 @@
         <v>24</v>
       </c>
       <c r="F12" s="6"/>
-      <c r="G12" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G12" s="6"/>
+      <c r="H12" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>19</v>
       </c>
@@ -885,11 +924,12 @@
         <v>21</v>
       </c>
       <c r="F13" s="6"/>
-      <c r="G13" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G13" s="6"/>
+      <c r="H13" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
@@ -911,11 +951,14 @@
       <c r="G14" s="6">
         <v>1</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="H14" s="6">
+        <v>1</v>
+      </c>
+      <c r="I14" s="7" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
@@ -932,11 +975,12 @@
         <v>15</v>
       </c>
       <c r="F15" s="6"/>
-      <c r="G15" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G15" s="6"/>
+      <c r="H15" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>8</v>
       </c>
@@ -953,11 +997,12 @@
         <v>11</v>
       </c>
       <c r="F16" s="6"/>
-      <c r="G16" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G16" s="6"/>
+      <c r="H16" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>5</v>
       </c>
@@ -974,11 +1019,12 @@
         <v>7</v>
       </c>
       <c r="F17" s="6"/>
-      <c r="G17" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G17" s="6"/>
+      <c r="H17" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
@@ -1000,21 +1046,64 @@
       <c r="G18" s="6">
         <v>1</v>
       </c>
-      <c r="H18" s="7" t="s">
+      <c r="H18" s="6">
+        <v>1</v>
+      </c>
+      <c r="I18" s="7" t="s">
         <v>64</v>
       </c>
     </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="5">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A2:G18">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H18">
     <sortCondition ref="B2:B18"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="H5" r:id="rId1" display="mailto:hans_ulrich.burger@roche.com"/>
-    <hyperlink ref="H3" r:id="rId2"/>
-    <hyperlink ref="H6" r:id="rId3" display="mailto:christoph.gerlinger@bayer.com"/>
-    <hyperlink ref="H14" r:id="rId4" display="mailto:kaspar.rufibach@roche.com"/>
-    <hyperlink ref="H18" r:id="rId5" display="mailto:emmanuel.zuber@novartis.com"/>
-    <hyperlink ref="H10" r:id="rId6"/>
+    <hyperlink ref="I5" r:id="rId1" display="mailto:hans_ulrich.burger@roche.com" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="I3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="I6" r:id="rId3" display="mailto:christoph.gerlinger@bayer.com" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="I14" r:id="rId4" display="mailto:kaspar.rufibach@roche.com" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="I18" r:id="rId5" display="mailto:emmanuel.zuber@novartis.com" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="I10" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
